--- a/MEDIA/100000_ 1101_003_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_ 1101_003_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_ 1101_003_2020-10-01~2020-10-20)</t>
+          <t>森邦(股)會計科目餘額明細(100000_ 1101_003_2020-11-01~2020-12-10)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>50900</v>
+        <v>4500</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>現金換振興卷                        </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G4" t="n">
-        <v>53100</v>
+        <v>2500</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109516</t>
+          <t>110877</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>佳里延平                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>現金換振興卷                        </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="G5" t="n">
-        <v>55100</v>
+        <v>-200</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109515</t>
+          <t>111031</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000416</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201002</t>
+          <t>20201105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>沙鹿中興                                    </t>
+          <t>佳里延平                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -528,29 +528,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>58400</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109562</t>
+          <t>111026</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000050</t>
+          <t>1000416</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20201109</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -569,17 +569,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59600</v>
+        <v>200</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109646</t>
+          <t>111148</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201007</t>
+          <t>20201114</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>桃園中山北                                   </t>
+          <t>樹林保安	                                   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>62400</v>
+        <v>2200</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109749</t>
+          <t>111407</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000313</t>
+          <t>1000944</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201007</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>永康五王                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>現金換振興卷                        </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G9" t="n">
-        <v>62900</v>
+        <v>1200</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109756</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000552</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>蘆竹仁愛                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>存9/23-10/7振興卷                 </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="n">
-        <v>-62900</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000201</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201118</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>佳里延平                                    </t>
+          <t>台南北成                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1300</v>
+        <v>7700</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109828</t>
+          <t>111592</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000416</t>
+          <t>1000171</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201010</t>
+          <t>20201119</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>桃園中山北                                   </t>
+          <t>南崁中山                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2300</v>
+        <v>13900</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109872</t>
+          <t>111665</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000313</t>
+          <t>1000354</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蘆竹仁愛                                    </t>
+          <t>樹林保安	                                   </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3500</v>
+        <v>15900</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109904</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000201</t>
+          <t>1000944</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -856,17 +856,17 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4200</v>
+        <v>16900</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109902</t>
+          <t>111806</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>永康五王                                    </t>
+          <t>蘆竹仁愛                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4400</v>
+        <v>17900</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110045</t>
+          <t>111810</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000552</t>
+          <t>1000201</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201019</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蘆竹仁愛                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>現金換振興卷                        </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G16" t="n">
-        <v>4900</v>
+        <v>15900</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110253</t>
+          <t>111976</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000201</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201019</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -979,17 +979,17 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5100</v>
+        <v>16300</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110246</t>
+          <t>111968</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,31 +1011,113 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>桃園中山北                                   </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>現金換振興卷                        </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" t="n">
-        <v>-4900</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>16500</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>112230</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1000313</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20201205</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1101  .003     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>桃園中山北                                   </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>200</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>110332</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16700</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>112363</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1000313</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20201207</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1101  .003     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>蘆竹仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>19000</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>112416</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1000201</t>
         </is>
       </c>
     </row>
